--- a/TableSampInfo.xlsx
+++ b/TableSampInfo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcaz/Documents/working/research_wall_lab/manuscript_MedGenome1/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanna/GitHub/bdow-recomb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C0A30-331F-0646-A440-632BFD75C345}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3419F35A-577E-DC48-B38A-A0A82951344F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="2200" windowWidth="22360" windowHeight="15320" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
+    <workbookView xWindow="6840" yWindow="460" windowWidth="21460" windowHeight="17060" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="282">
   <si>
     <t>Specimen Collection</t>
   </si>
@@ -589,6 +589,288 @@
   </si>
   <si>
     <t>Genomic Resource Collection, Museum of Natural History &amp; Science, Cincinnati Museum Center, Cincinnati, Ohio, United States of America</t>
+  </si>
+  <si>
+    <t>1687-09310</t>
+  </si>
+  <si>
+    <t>ZRH625</t>
+  </si>
+  <si>
+    <t>2017 August 2 more hybrid juveniles (1 of 2)</t>
+  </si>
+  <si>
+    <t>1957-00240</t>
+  </si>
+  <si>
+    <t>2017 August 2 more hybrid juveniles (2 of 2)</t>
+  </si>
+  <si>
+    <t>1957-00243</t>
+  </si>
+  <si>
+    <t>2017 July juvenile hybrid</t>
+  </si>
+  <si>
+    <t>1957-00137</t>
+  </si>
+  <si>
+    <t>LCW1383</t>
+  </si>
+  <si>
+    <t>RDB001</t>
+  </si>
+  <si>
+    <t>LCW1363</t>
+  </si>
+  <si>
+    <t>RDB003</t>
+  </si>
+  <si>
+    <t>ZRH962</t>
+  </si>
+  <si>
+    <t>CAS:ORN:98171</t>
+  </si>
+  <si>
+    <t>CAS:ORN:99316</t>
+  </si>
+  <si>
+    <t>ZRH600</t>
+  </si>
+  <si>
+    <t>ZRH607</t>
+  </si>
+  <si>
+    <t>UWBM_91381</t>
+  </si>
+  <si>
+    <t>UWBM91381</t>
+  </si>
+  <si>
+    <t>UWBM_91379</t>
+  </si>
+  <si>
+    <t>UWBM91379</t>
+  </si>
+  <si>
+    <t>UWBM_48266</t>
+  </si>
+  <si>
+    <t>UWBM48266</t>
+  </si>
+  <si>
+    <t>UWBM_62061</t>
+  </si>
+  <si>
+    <t>UWBM62061</t>
+  </si>
+  <si>
+    <t>COA15-172</t>
+  </si>
+  <si>
+    <t>TLW528</t>
+  </si>
+  <si>
+    <t>COA16-007</t>
+  </si>
+  <si>
+    <t>TLW519</t>
+  </si>
+  <si>
+    <t>COA17-030</t>
+  </si>
+  <si>
+    <t>TLW531</t>
+  </si>
+  <si>
+    <t>COA17-032</t>
+  </si>
+  <si>
+    <t>TLW532</t>
+  </si>
+  <si>
+    <t>CLE17-009</t>
+  </si>
+  <si>
+    <t>AFRD90</t>
+  </si>
+  <si>
+    <t>KLA17-035</t>
+  </si>
+  <si>
+    <t>CYWC9</t>
+  </si>
+  <si>
+    <t>COA17-180</t>
+  </si>
+  <si>
+    <t>TLW521</t>
+  </si>
+  <si>
+    <t>1177-37991</t>
+  </si>
+  <si>
+    <t>ZRH615</t>
+  </si>
+  <si>
+    <t>1177-37995</t>
+  </si>
+  <si>
+    <t>ZRH610</t>
+  </si>
+  <si>
+    <t>CAS:ORN:99322</t>
+  </si>
+  <si>
+    <t>CAS:ORN:99320</t>
+  </si>
+  <si>
+    <t>UWBM:Bird:91381</t>
+  </si>
+  <si>
+    <t>UWBM:Bird:91379</t>
+  </si>
+  <si>
+    <t>UWBM:Bird:48266</t>
+  </si>
+  <si>
+    <t>UWBM:Bird:62061</t>
+  </si>
+  <si>
+    <t>spotted owl paired with a female barred owl. Father of hybrid 1957-00137.</t>
+  </si>
+  <si>
+    <t>2017 August 2 more hybrid juveniles at same site as in 2015. blood (again saved as whole blood in tubes and frozen as we still do not have anything else.  I told Anthony that sighting the adults was crucial so that we know whether or not they are the same 2 birds that we had there in 2015 and which you already have samples from.  However, the male spotted owl would not come down into view and the barred owl female has not been detected at all yet.</t>
+  </si>
+  <si>
+    <t>2017 July juvenile hybrid being fed by a spotted owl at Hoopa. Father is spotted owl (blood sample taken) who has paired with barred owls in the past. Mother barred owl blood sample also taken in addition to being taken as a specimen.</t>
+  </si>
+  <si>
+    <t>possible hybrid, based on odd plumage, but very spotty</t>
+  </si>
+  <si>
+    <t>Low coverage sequencing confirmed as hybrid.</t>
+  </si>
+  <si>
+    <t>Blood sample from captive individual at HSU Wildlife facility. Rick Brown took blood sample on 2014Apr22. Bird originally collected by Lowell Diller on Green Diamond Resource Company lands and donated to HSU.</t>
+  </si>
+  <si>
+    <t>eastern Oregon</t>
+  </si>
+  <si>
+    <t>central Oregon</t>
+  </si>
+  <si>
+    <t>northern end of NSO range</t>
+  </si>
+  <si>
+    <t>southernmost Sierra sample we have</t>
+  </si>
+  <si>
+    <t>possible hybrid, based on odd plumage</t>
+  </si>
+  <si>
+    <t>spotted owl father of 2015 Box Camp hybrid juvenile, possibly also of 2 August 2017 hybrids</t>
+  </si>
+  <si>
+    <t>2015 Box Camp hybrid</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>varia x occidentalis</t>
+  </si>
+  <si>
+    <t>Ornithology Collection, Burke Museum, University of Washington, Seattle, Washington, U.S.A.</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>40.9979662037613</t>
+  </si>
+  <si>
+    <t>44.540441</t>
+  </si>
+  <si>
+    <t>44.2914</t>
+  </si>
+  <si>
+    <t>36.5118437</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>5/2/1988</t>
+  </si>
+  <si>
+    <t>2014Jul15</t>
+  </si>
+  <si>
+    <t>Benton County</t>
+  </si>
+  <si>
+    <t>Tulare County</t>
+  </si>
+  <si>
+    <t>Whatcom County</t>
+  </si>
+  <si>
+    <t>Linn County</t>
+  </si>
+  <si>
+    <t>Baker County</t>
+  </si>
+  <si>
+    <t>Lane County</t>
+  </si>
+  <si>
+    <t>Douglas County</t>
+  </si>
+  <si>
+    <t>Kittitas County</t>
+  </si>
+  <si>
+    <t>1/6/2016</t>
+  </si>
+  <si>
+    <t>9/6/2016</t>
+  </si>
+  <si>
+    <t>3/12/2017</t>
+  </si>
+  <si>
+    <t>3/27/2017</t>
+  </si>
+  <si>
+    <t>2/23/2017</t>
+  </si>
+  <si>
+    <t>9/20/2017</t>
+  </si>
+  <si>
+    <t>Bird Collection, Museum of Vertebrate Zoology, University of California, Berkeley, California, U.S.A.</t>
+  </si>
+  <si>
+    <t>Shasta County</t>
+  </si>
+  <si>
+    <t>41.331551</t>
+  </si>
+  <si>
+    <t>121.879370</t>
+  </si>
+  <si>
+    <t>40.976178</t>
+  </si>
+  <si>
+    <t>122.010270</t>
   </si>
 </sst>
 </file>
@@ -596,10 +878,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,6 +909,47 @@
       <sz val="12"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF010000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -636,7 +959,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,11 +967,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00000A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00000A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,7 +1026,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -680,11 +1040,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,7 +1054,70 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,16 +1432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ACE95E-32CC-614A-A2EF-1DF085F05374}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="7680" ySplit="1460" topLeftCell="G46" activePane="bottomRight"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="6" customWidth="1"/>
@@ -1027,10 +1454,11 @@
     <col min="10" max="10" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="6"/>
     <col min="13" max="13" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="6"/>
+    <col min="14" max="14" width="43.83203125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="48">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="51">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1070,8 +1498,11 @@
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1112,7 +1543,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -1153,7 +1584,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1194,7 +1625,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -1235,7 +1666,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="3" t="s">
         <v>180</v>
       </c>
@@ -1276,7 +1707,7 @@
         <v>39757</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
         <v>181</v>
       </c>
@@ -1317,7 +1748,7 @@
         <v>39474</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="16" t="s">
         <v>182</v>
       </c>
@@ -1358,7 +1789,7 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -1399,7 +1830,7 @@
         <v>40144</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
@@ -1440,7 +1871,7 @@
         <v>38451</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="16" t="s">
         <v>71</v>
       </c>
@@ -1481,7 +1912,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="16" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1953,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="16" t="s">
         <v>179</v>
       </c>
@@ -1563,7 +1994,7 @@
         <v>41248</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -1604,7 +2035,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -1645,7 +2076,7 @@
         <v>38939</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="32">
+    <row r="16" spans="1:14" ht="34">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -1686,7 +2117,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14" ht="17">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -1727,7 +2158,7 @@
         <v>37614</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -1768,7 +2199,7 @@
         <v>39398</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -1809,7 +2240,7 @@
         <v>37252</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -1850,7 +2281,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -1891,7 +2322,7 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -1932,7 +2363,7 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
@@ -1973,7 +2404,7 @@
         <v>37608</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -2014,7 +2445,7 @@
         <v>38939</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" ht="17">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -2055,7 +2486,7 @@
         <v>38921</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14" ht="17">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -2096,7 +2527,7 @@
         <v>38561</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -2137,7 +2568,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>87</v>
       </c>
@@ -2178,7 +2609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="7" t="s">
         <v>88</v>
       </c>
@@ -2219,7 +2650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
@@ -2255,6 +2686,754 @@
       </c>
       <c r="M30" s="21">
         <v>38529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="34">
+      <c r="A31" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="38">
+        <v>41.0807991233781</v>
+      </c>
+      <c r="J31" s="38">
+        <v>-123.635754852489</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="153">
+      <c r="A32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="153">
+      <c r="A33" s="24"/>
+      <c r="C33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="85">
+      <c r="A34" s="22"/>
+      <c r="C34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="22"/>
+      <c r="B35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="37">
+        <v>42312</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="22"/>
+      <c r="B36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="37">
+        <v>42319</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1">
+      <c r="A37" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" s="20">
+        <v>-123.732957735124</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="32">
+        <v>41724</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="86" thickBot="1">
+      <c r="A38" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="41">
+        <v>40.775620000000004</v>
+      </c>
+      <c r="J38" s="41">
+        <v>-123.82325</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="42">
+        <v>39899</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" thickBot="1">
+      <c r="A39" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="G39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" s="6">
+        <v>-123.36807399999999</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" s="32">
+        <v>38710</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="35" thickBot="1">
+      <c r="A40" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="44">
+        <v>44.922365999999997</v>
+      </c>
+      <c r="J40" s="44">
+        <v>-117.600072</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="35">
+        <v>38855</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="35" thickBot="1">
+      <c r="A41" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="6">
+        <v>-122.2166</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" s="32">
+        <v>39610</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="35" thickBot="1">
+      <c r="A42" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="34">
+        <v>48.691000000000003</v>
+      </c>
+      <c r="J42" s="34">
+        <v>-121.7116</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="35" thickBot="1">
+      <c r="A43" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" s="6">
+        <v>-118.6873626</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" s="33">
+        <v>34486</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="35" thickBot="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" s="41">
+        <v>44.285356135049661</v>
+      </c>
+      <c r="J44" s="41">
+        <v>-123.62013095044681</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="35" thickBot="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I45" s="41">
+        <v>44.204131077551807</v>
+      </c>
+      <c r="J45" s="41">
+        <v>-123.59785176803717</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="35" thickBot="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="41">
+        <v>44.197572278483307</v>
+      </c>
+      <c r="J46" s="41">
+        <v>-123.65762773932902</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="35" thickBot="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I47" s="41">
+        <v>44.187553275711139</v>
+      </c>
+      <c r="J47" s="41">
+        <v>-123.65890516108581</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="35" thickBot="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I48" s="41">
+        <v>47.020471346888328</v>
+      </c>
+      <c r="J48" s="41">
+        <v>-120.98575675375824</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M48" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="35" thickBot="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I49" s="41">
+        <v>42.950736667632668</v>
+      </c>
+      <c r="J49" s="41">
+        <v>-123.71887658646645</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="35" thickBot="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" s="41">
+        <v>44.125486400966849</v>
+      </c>
+      <c r="J50" s="41">
+        <v>-123.54771257023276</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M50" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="26"/>
+      <c r="C51" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="26"/>
+      <c r="C52" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/TableSampInfo.xlsx
+++ b/TableSampInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanna/GitHub/bdow-recomb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3419F35A-577E-DC48-B38A-A0A82951344F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA321DB7-4CB5-A343-A4D6-56132EF7A6F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="460" windowWidth="21460" windowHeight="17060" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="21460" windowHeight="17060" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="275">
   <si>
     <t>Specimen Collection</t>
   </si>
@@ -807,9 +807,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>5/2/1988</t>
-  </si>
-  <si>
     <t>2014Jul15</t>
   </si>
   <si>
@@ -835,24 +832,6 @@
   </si>
   <si>
     <t>Kittitas County</t>
-  </si>
-  <si>
-    <t>1/6/2016</t>
-  </si>
-  <si>
-    <t>9/6/2016</t>
-  </si>
-  <si>
-    <t>3/12/2017</t>
-  </si>
-  <si>
-    <t>3/27/2017</t>
-  </si>
-  <si>
-    <t>2/23/2017</t>
-  </si>
-  <si>
-    <t>9/20/2017</t>
   </si>
   <si>
     <t>Bird Collection, Museum of Vertebrate Zoology, University of California, Berkeley, California, U.S.A.</t>
@@ -877,9 +856,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1008,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,7 +1032,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1085,37 +1062,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1435,11 +1410,11 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="7680" ySplit="1460" topLeftCell="G46" activePane="bottomRight"/>
+      <pane xSplit="7680" ySplit="1460" topLeftCell="H41" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2:M52"/>
+      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2605,7 +2580,7 @@
       <c r="L28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2646,7 +2621,7 @@
       <c r="L29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2684,21 +2659,21 @@
       <c r="L30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="42">
         <v>38529</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="34">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>231</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>189</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2707,10 +2682,10 @@
       <c r="H31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="33">
         <v>41.0807991233781</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="33">
         <v>-123.635754852489</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -2719,19 +2694,19 @@
       <c r="L31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="N31" s="24" t="s">
+      <c r="M31" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" s="23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="153">
-      <c r="A32" s="24"/>
-      <c r="C32" s="24" t="s">
+      <c r="A32" s="23"/>
+      <c r="C32" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>191</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2746,16 +2721,17 @@
       <c r="L32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="M32" s="42"/>
+      <c r="N32" s="23" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="153">
-      <c r="A33" s="24"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="23"/>
+      <c r="C33" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>193</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2770,16 +2746,17 @@
       <c r="L33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="M33" s="42"/>
+      <c r="N33" s="23" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="85">
-      <c r="A34" s="22"/>
-      <c r="C34" s="22" t="s">
+      <c r="A34" s="21"/>
+      <c r="C34" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>195</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -2796,19 +2773,20 @@
       <c r="L34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="M34" s="42"/>
+      <c r="N34" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>197</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2817,11 +2795,11 @@
       <c r="H35" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I35" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>279</v>
+      <c r="I35" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>97</v>
@@ -2829,22 +2807,22 @@
       <c r="L35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="42">
         <v>42312</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>199</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2853,36 +2831,36 @@
       <c r="H36" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I36" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>281</v>
+      <c r="I36" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="42">
         <v>42319</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N36" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" thickBot="1">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2891,7 +2869,7 @@
       <c r="H37" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="35" t="s">
         <v>255</v>
       </c>
       <c r="J37" s="20">
@@ -2900,27 +2878,27 @@
       <c r="K37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="44">
         <v>41724</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="21" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="86" thickBot="1">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>202</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>203</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -2929,72 +2907,72 @@
       <c r="H38" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="36">
         <v>40.775620000000004</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="36">
         <v>-123.82325</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="45">
         <v>39899</v>
       </c>
-      <c r="N38" s="29" t="s">
+      <c r="N38" s="28" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17" thickBot="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="G39" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="37" t="s">
         <v>256</v>
       </c>
       <c r="J39" s="6">
         <v>-123.36807399999999</v>
       </c>
-      <c r="K39" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="L39" s="31" t="s">
+      <c r="K39" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L39" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="44">
         <v>38710</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="21" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="35" thickBot="1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="27" t="s">
         <v>206</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3003,36 +2981,36 @@
       <c r="H40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="38">
         <v>44.922365999999997</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="38">
         <v>-117.600072</v>
       </c>
-      <c r="K40" s="34" t="s">
-        <v>266</v>
+      <c r="K40" s="31" t="s">
+        <v>265</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="42">
         <v>38855</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="21" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="35" thickBot="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>208</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3041,36 +3019,36 @@
       <c r="H41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="37" t="s">
         <v>257</v>
       </c>
       <c r="J41" s="6">
         <v>-122.2166</v>
       </c>
-      <c r="K41" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="L41" s="31" t="s">
+      <c r="K41" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L41" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="44">
         <v>39610</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="21" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="35" thickBot="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="27" t="s">
         <v>210</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3079,36 +3057,36 @@
       <c r="H42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="31">
         <v>48.691000000000003</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="31">
         <v>-121.7116</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="L42" s="44" t="s">
+      <c r="K42" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="M42" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="N42" s="22" t="s">
+      <c r="M42" s="46">
+        <v>32265</v>
+      </c>
+      <c r="N42" s="21" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="35" thickBot="1">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="27" t="s">
         <v>212</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3117,34 +3095,34 @@
       <c r="H43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="37" t="s">
         <v>258</v>
       </c>
       <c r="J43" s="6">
         <v>-118.6873626</v>
       </c>
-      <c r="K43" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="L43" s="31" t="s">
+      <c r="K43" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="44">
         <v>34486</v>
       </c>
-      <c r="N43" s="22" t="s">
+      <c r="N43" s="21" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="35" thickBot="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C44" s="45" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>214</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3153,34 +3131,34 @@
       <c r="H44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="36">
         <v>44.285356135049661</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="36">
         <v>-123.62013095044681</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M44" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="N44" s="22" t="s">
+      <c r="M44" s="47">
+        <v>42375</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="35" thickBot="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C45" s="45" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>216</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3189,34 +3167,34 @@
       <c r="H45" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="36">
         <v>44.204131077551807</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="36">
         <v>-123.59785176803717</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M45" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="N45" s="22" t="s">
+      <c r="M45" s="47">
+        <v>42619</v>
+      </c>
+      <c r="N45" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="35" thickBot="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="45" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>218</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3225,34 +3203,34 @@
       <c r="H46" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="36">
         <v>44.197572278483307</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="36">
         <v>-123.65762773932902</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M46" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="N46" s="22" t="s">
+      <c r="M46" s="47">
+        <v>42806</v>
+      </c>
+      <c r="N46" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="35" thickBot="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>220</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -3261,34 +3239,34 @@
       <c r="H47" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="36">
         <v>44.187553275711139</v>
       </c>
-      <c r="J47" s="41">
+      <c r="J47" s="36">
         <v>-123.65890516108581</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M47" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="N47" s="22" t="s">
+      <c r="M47" s="47">
+        <v>42806</v>
+      </c>
+      <c r="N47" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="35" thickBot="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="47" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>222</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -3297,34 +3275,34 @@
       <c r="H48" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="36">
         <v>47.020471346888328</v>
       </c>
-      <c r="J48" s="41">
+      <c r="J48" s="36">
         <v>-120.98575675375824</v>
       </c>
-      <c r="K48" s="48" t="s">
-        <v>269</v>
+      <c r="K48" s="41" t="s">
+        <v>268</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M48" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="N48" s="22" t="s">
+      <c r="M48" s="47">
+        <v>42821</v>
+      </c>
+      <c r="N48" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="35" thickBot="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="47" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>224</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -3333,34 +3311,34 @@
       <c r="H49" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="36">
         <v>42.950736667632668</v>
       </c>
-      <c r="J49" s="41">
+      <c r="J49" s="36">
         <v>-123.71887658646645</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M49" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="N49" s="22" t="s">
+      <c r="M49" s="47">
+        <v>42789</v>
+      </c>
+      <c r="N49" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="35" thickBot="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="47" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>226</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -3369,31 +3347,34 @@
       <c r="H50" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I50" s="36">
         <v>44.125486400966849</v>
       </c>
-      <c r="J50" s="41">
+      <c r="J50" s="36">
         <v>-123.54771257023276</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M50" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="N50" s="22" t="s">
+      <c r="M50" s="47">
+        <v>42998</v>
+      </c>
+      <c r="N50" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="26"/>
-      <c r="C51" s="28" t="s">
+    <row r="51" spans="1:14" ht="35" thickBot="1">
+      <c r="A51" s="25"/>
+      <c r="B51" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3408,16 +3389,20 @@
       <c r="L51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N51" s="22" t="s">
+      <c r="M51" s="42"/>
+      <c r="N51" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="26"/>
-      <c r="C52" s="28" t="s">
+    <row r="52" spans="1:14" ht="35" thickBot="1">
+      <c r="A52" s="25"/>
+      <c r="B52" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>230</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -3426,13 +3411,22 @@
       <c r="H52" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="I52" s="6">
+        <v>41.087817999999999</v>
+      </c>
+      <c r="J52" s="6">
+        <v>-123.541158</v>
+      </c>
       <c r="K52" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N52" s="22" t="s">
+      <c r="M52" s="42">
+        <v>42200</v>
+      </c>
+      <c r="N52" s="21" t="s">
         <v>249</v>
       </c>
     </row>

--- a/TableSampInfo.xlsx
+++ b/TableSampInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanna/GitHub/bdow-recomb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA321DB7-4CB5-A343-A4D6-56132EF7A6F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57282AD1-B5E5-DB4C-AC0D-D8BA4913D704}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="21460" windowHeight="17060" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
+    <workbookView xWindow="6560" yWindow="460" windowWidth="21460" windowHeight="17060" xr2:uid="{FCB3C29E-4D4A-1E40-842C-40617097500D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="277">
   <si>
     <t>Specimen Collection</t>
   </si>
@@ -777,9 +777,6 @@
     <t>2015 Box Camp hybrid</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -850,6 +847,15 @@
   </si>
   <si>
     <t>122.010270</t>
+  </si>
+  <si>
+    <t>Note2</t>
+  </si>
+  <si>
+    <t>Note1 - why squenced</t>
+  </si>
+  <si>
+    <t>Contact Mark Higley for more information about this sample. The sample is currently at CAS. It would be good to get it catalogued.</t>
   </si>
 </sst>
 </file>
@@ -1407,14 +1413,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ACE95E-32CC-614A-A2EF-1DF085F05374}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="7680" ySplit="1460" topLeftCell="H41" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7680" ySplit="1460" topLeftCell="M30" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:B34"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1433,7 +1439,7 @@
     <col min="15" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="51">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="51">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1474,10 +1480,13 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17">
+        <v>275</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17">
+    <row r="5" spans="1:15" ht="17">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17">
+    <row r="6" spans="1:15" ht="17">
       <c r="A6" s="3" t="s">
         <v>180</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>39757</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="16" t="s">
         <v>181</v>
       </c>
@@ -1723,7 +1732,7 @@
         <v>39474</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17">
+    <row r="8" spans="1:15" ht="17">
       <c r="A8" s="16" t="s">
         <v>182</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17">
+    <row r="9" spans="1:15" ht="17">
       <c r="A9" s="16" t="s">
         <v>183</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>40144</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>38451</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="16" t="s">
         <v>71</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17">
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="16" t="s">
         <v>72</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17">
+    <row r="13" spans="1:15" ht="17">
       <c r="A13" s="16" t="s">
         <v>179</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>41248</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17">
+    <row r="14" spans="1:15" ht="17">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>38939</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="34">
+    <row r="16" spans="1:15" ht="34">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17">
+    <row r="17" spans="1:15" ht="17">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>37614</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17">
+    <row r="18" spans="1:15" ht="17">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>39398</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17">
+    <row r="19" spans="1:15" ht="17">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>37252</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17">
+    <row r="21" spans="1:15" ht="17">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -2297,7 +2306,7 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17">
+    <row r="22" spans="1:15" ht="17">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>37608</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>38939</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17">
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>38921</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17">
+    <row r="26" spans="1:15" ht="17">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>38561</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>87</v>
       </c>
@@ -2584,7 +2593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17">
+    <row r="29" spans="1:15" ht="17">
       <c r="A29" s="7" t="s">
         <v>88</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>38529</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="34">
+    <row r="31" spans="1:15" ht="34">
       <c r="A31" s="22" t="s">
         <v>231</v>
       </c>
@@ -2695,14 +2704,17 @@
         <v>96</v>
       </c>
       <c r="M31" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="153">
+    <row r="32" spans="1:15" ht="153">
       <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C32" s="23" t="s">
         <v>190</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>110</v>
@@ -2725,9 +2737,15 @@
       <c r="N32" s="23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="153">
+      <c r="O32" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="153">
       <c r="A33" s="23"/>
+      <c r="B33" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C33" s="23" t="s">
         <v>192</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>92</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>110</v>
@@ -2750,9 +2768,15 @@
       <c r="N33" s="23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="85">
+      <c r="O33" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="85">
       <c r="A34" s="21"/>
+      <c r="B34" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C34" s="21" t="s">
         <v>194</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>92</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -2777,8 +2801,11 @@
       <c r="N34" s="23" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="21"/>
       <c r="B35" s="4" t="s">
         <v>185</v>
@@ -2793,13 +2820,13 @@
         <v>92</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I35" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="34" t="s">
         <v>271</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>272</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>97</v>
@@ -2814,7 +2841,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
         <v>185</v>
@@ -2829,16 +2856,16 @@
         <v>92</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I36" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="J36" s="34" t="s">
-        <v>274</v>
-      </c>
       <c r="K36" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>96</v>
@@ -2850,7 +2877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1">
+    <row r="37" spans="1:15" ht="17" thickBot="1">
       <c r="A37" s="25" t="s">
         <v>201</v>
       </c>
@@ -2867,10 +2894,10 @@
         <v>92</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J37" s="20">
         <v>-123.732957735124</v>
@@ -2888,7 +2915,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="86" thickBot="1">
+    <row r="38" spans="1:15" ht="86" thickBot="1">
       <c r="A38" s="21" t="s">
         <v>202</v>
       </c>
@@ -2905,7 +2932,7 @@
         <v>92</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I38" s="36">
         <v>40.775620000000004</v>
@@ -2926,7 +2953,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1">
+    <row r="39" spans="1:15" ht="17" thickBot="1">
       <c r="A39" s="21" t="s">
         <v>232</v>
       </c>
@@ -2941,19 +2968,19 @@
         <v>92</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J39" s="6">
         <v>-123.36807399999999</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L39" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M39" s="44">
         <v>38710</v>
@@ -2962,12 +2989,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="35" thickBot="1">
+    <row r="40" spans="1:15" ht="35" thickBot="1">
       <c r="A40" s="27" t="s">
         <v>233</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>205</v>
@@ -2988,10 +3015,10 @@
         <v>-117.600072</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M40" s="42">
         <v>38855</v>
@@ -3000,12 +3027,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="35" thickBot="1">
+    <row r="41" spans="1:15" ht="35" thickBot="1">
       <c r="A41" s="27" t="s">
         <v>234</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>207</v>
@@ -3020,16 +3047,16 @@
         <v>91</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J41" s="6">
         <v>-122.2166</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M41" s="44">
         <v>39610</v>
@@ -3038,12 +3065,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="35" thickBot="1">
+    <row r="42" spans="1:15" ht="35" thickBot="1">
       <c r="A42" s="27" t="s">
         <v>235</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>209</v>
@@ -3064,10 +3091,10 @@
         <v>-121.7116</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M42" s="46">
         <v>32265</v>
@@ -3076,12 +3103,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="35" thickBot="1">
+    <row r="43" spans="1:15" ht="35" thickBot="1">
       <c r="A43" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>211</v>
@@ -3096,13 +3123,13 @@
         <v>91</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J43" s="6">
         <v>-118.6873626</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L43" s="30" t="s">
         <v>96</v>
@@ -3114,10 +3141,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="35" thickBot="1">
+    <row r="44" spans="1:15" ht="35" thickBot="1">
       <c r="A44" s="23"/>
       <c r="B44" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>213</v>
@@ -3129,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I44" s="36">
         <v>44.285356135049661</v>
@@ -3138,10 +3165,10 @@
         <v>-123.62013095044681</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M44" s="47">
         <v>42375</v>
@@ -3150,10 +3177,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="35" thickBot="1">
+    <row r="45" spans="1:15" ht="35" thickBot="1">
       <c r="A45" s="23"/>
       <c r="B45" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>215</v>
@@ -3165,7 +3192,7 @@
         <v>92</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I45" s="36">
         <v>44.204131077551807</v>
@@ -3174,10 +3201,10 @@
         <v>-123.59785176803717</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M45" s="47">
         <v>42619</v>
@@ -3186,10 +3213,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="35" thickBot="1">
+    <row r="46" spans="1:15" ht="35" thickBot="1">
       <c r="A46" s="21"/>
       <c r="B46" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>217</v>
@@ -3201,7 +3228,7 @@
         <v>92</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I46" s="36">
         <v>44.197572278483307</v>
@@ -3210,10 +3237,10 @@
         <v>-123.65762773932902</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M46" s="47">
         <v>42806</v>
@@ -3222,10 +3249,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="35" thickBot="1">
+    <row r="47" spans="1:15" ht="35" thickBot="1">
       <c r="A47" s="21"/>
       <c r="B47" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>219</v>
@@ -3237,7 +3264,7 @@
         <v>92</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I47" s="36">
         <v>44.187553275711139</v>
@@ -3246,10 +3273,10 @@
         <v>-123.65890516108581</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M47" s="47">
         <v>42806</v>
@@ -3258,10 +3285,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="35" thickBot="1">
+    <row r="48" spans="1:15" ht="35" thickBot="1">
       <c r="A48" s="23"/>
       <c r="B48" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>221</v>
@@ -3273,7 +3300,7 @@
         <v>92</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I48" s="36">
         <v>47.020471346888328</v>
@@ -3282,10 +3309,10 @@
         <v>-120.98575675375824</v>
       </c>
       <c r="K48" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M48" s="47">
         <v>42821</v>
@@ -3297,7 +3324,7 @@
     <row r="49" spans="1:14" ht="35" thickBot="1">
       <c r="A49" s="21"/>
       <c r="B49" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>223</v>
@@ -3309,7 +3336,7 @@
         <v>92</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I49" s="36">
         <v>42.950736667632668</v>
@@ -3318,10 +3345,10 @@
         <v>-123.71887658646645</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M49" s="47">
         <v>42789</v>
@@ -3333,7 +3360,7 @@
     <row r="50" spans="1:14" ht="35" thickBot="1">
       <c r="A50" s="21"/>
       <c r="B50" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>225</v>
@@ -3345,7 +3372,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I50" s="36">
         <v>44.125486400966849</v>
@@ -3354,10 +3381,10 @@
         <v>-123.54771257023276</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M50" s="47">
         <v>42998</v>
@@ -3369,7 +3396,7 @@
     <row r="51" spans="1:14" ht="35" thickBot="1">
       <c r="A51" s="25"/>
       <c r="B51" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>227</v>
@@ -3383,13 +3410,21 @@
       <c r="H51" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="I51" s="6">
+        <v>41.087098398120403</v>
+      </c>
+      <c r="J51" s="6">
+        <v>-123.539948022275</v>
+      </c>
       <c r="K51" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M51" s="42"/>
+      <c r="M51" s="42">
+        <v>42207</v>
+      </c>
       <c r="N51" s="21" t="s">
         <v>248</v>
       </c>
@@ -3397,7 +3432,7 @@
     <row r="52" spans="1:14" ht="35" thickBot="1">
       <c r="A52" s="25"/>
       <c r="B52" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>229</v>
@@ -3409,7 +3444,7 @@
         <v>92</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I52" s="6">
         <v>41.087817999999999</v>
